--- a/h_rad.xlsx
+++ b/h_rad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\155.230.252.106\lgar4_rlarl0240\project\_ne_muscle\1_rna_seq_auto_improve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA0BE0D-95CE-48A4-9354-681B54DE4A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA60F4-89DF-4508-A45B-F2598EDC0E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11829" xr2:uid="{067B38E2-0556-4BBA-AEBF-DEB14452E17D}"/>
   </bookViews>
@@ -59,40 +59,42 @@
     <t>GSE120805</t>
   </si>
   <si>
+    <t>GSM3416076,GSM3416077,GSM3416078,GSM3416079,GSM3416080</t>
+  </si>
+  <si>
+    <t>GSM3416141,GSM3416142,GSM3416143,GSM3416144,GSM3416145</t>
+  </si>
+  <si>
+    <t>GSM3416111,GSM3416112,GSM3416113,GSM3416114,GSM3416115</t>
+  </si>
+  <si>
+    <t>GSE145577</t>
+  </si>
+  <si>
+    <t>GSM4321723,GSM4321724,GSM4321725,GSM4321726</t>
+  </si>
+  <si>
+    <t>GSM4321734,GSM4321735,GSM4321736</t>
+  </si>
+  <si>
+    <t>GSM4321731,GSM4321732,GSM4321733</t>
+  </si>
+  <si>
+    <t>GSE154234</t>
+  </si>
+  <si>
+    <t>GSM4667244,GSM4667245,GSM4667246,GSM4667247</t>
+  </si>
+  <si>
+    <t>GSM4667236,GSM4667237,GSM4667238,GSM4667239</t>
+  </si>
+  <si>
+    <t>GSM4321727,GSM4321728,GSM4321729,GSM4321730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GSM3416106,GSM3416107,GSM3416108,GSM3416109,GSM3416110</t>
-  </si>
-  <si>
-    <t>GSM3416076,GSM3416077,GSM3416078,GSM3416079,GSM3416080</t>
-  </si>
-  <si>
-    <t>GSM3416141,GSM3416142,GSM3416143,GSM3416144,GSM3416145</t>
-  </si>
-  <si>
-    <t>GSM3416111,GSM3416112,GSM3416113,GSM3416114,GSM3416115</t>
-  </si>
-  <si>
-    <t>GSE145577</t>
-  </si>
-  <si>
-    <t>GSM4321727,GSM4321728,GSM4321729,GSM4321730</t>
-  </si>
-  <si>
-    <t>GSM4321723,GSM4321724,GSM4321725,GSM4321726</t>
-  </si>
-  <si>
-    <t>GSM4321734,GSM4321735,GSM4321736</t>
-  </si>
-  <si>
-    <t>GSM4321731,GSM4321732,GSM4321733</t>
-  </si>
-  <si>
-    <t>GSE154234</t>
-  </si>
-  <si>
-    <t>GSM4667244,GSM4667245,GSM4667246,GSM4667247</t>
-  </si>
-  <si>
-    <t>GSM4667236,GSM4667237,GSM4667238,GSM4667239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -479,7 +481,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -515,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -526,43 +528,43 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
